--- a/FWF-Width-File.xlsx
+++ b/FWF-Width-File.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29412" windowHeight="12454"/>
+    <workbookView windowWidth="14645" windowHeight="12148"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$234</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="198">
   <si>
     <t>Sheet</t>
   </si>
@@ -25,10 +28,13 @@
     <t>Len</t>
   </si>
   <si>
+    <t>R76120L01</t>
+  </si>
+  <si>
+    <t>Centre, Round</t>
+  </si>
+  <si>
     <t xml:space="preserve"> R76120L01</t>
-  </si>
-  <si>
-    <t>Centre, Round</t>
   </si>
   <si>
     <t>FSU Serial No.</t>
@@ -1621,11 +1627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99186991869919" defaultRowHeight="13.75" outlineLevelCol="2"/>
@@ -1645,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1656,2366 +1662,2366 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" hidden="1" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" hidden="1" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" hidden="1" spans="1:3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" hidden="1" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" hidden="1" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" hidden="1" spans="1:3">
       <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C43" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" hidden="1" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" hidden="1" spans="1:3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" hidden="1" spans="1:3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" hidden="1" spans="1:3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" hidden="1" spans="1:3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" hidden="1" spans="1:3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" hidden="1" spans="1:3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" hidden="1" spans="1:3">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" hidden="1" spans="1:3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" hidden="1" spans="1:3">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" hidden="1" spans="1:3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" hidden="1" spans="1:3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" hidden="1" spans="1:3">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" hidden="1" spans="1:3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" hidden="1" spans="1:3">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" hidden="1" spans="1:3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" hidden="1" spans="1:3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" hidden="1" spans="1:3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" hidden="1" spans="1:3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" hidden="1" spans="1:3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" hidden="1" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" hidden="1" spans="1:3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" hidden="1" spans="1:3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" hidden="1" spans="1:3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" hidden="1" spans="1:3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" hidden="1" spans="1:3">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" hidden="1" spans="1:3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" hidden="1" spans="1:3">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" hidden="1" spans="1:3">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:3">
+      <c r="A74" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>64</v>
-      </c>
       <c r="B74" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" hidden="1" spans="1:3">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" hidden="1" spans="1:3">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" hidden="1" spans="1:3">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" hidden="1" spans="1:3">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C78" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" hidden="1" spans="1:3">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" hidden="1" spans="1:3">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" hidden="1" spans="1:3">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" hidden="1" spans="1:3">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" hidden="1" spans="1:3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" hidden="1" spans="1:3">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" hidden="1" spans="1:3">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C85" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" hidden="1" spans="1:3">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" hidden="1" spans="1:3">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" hidden="1" spans="1:3">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" hidden="1" spans="1:3">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" hidden="1" spans="1:3">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" hidden="1" spans="1:3">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" hidden="1" spans="1:3">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C92" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" hidden="1" spans="1:3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" hidden="1" spans="1:3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C94" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" hidden="1" spans="1:3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" hidden="1" spans="1:3">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C96" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" hidden="1" spans="1:3">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C97" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" hidden="1" spans="1:3">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C98" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" hidden="1" spans="1:3">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C99" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" hidden="1" spans="1:3">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C100" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" hidden="1" spans="1:3">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C101" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" hidden="1" spans="1:3">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C102" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" hidden="1" spans="1:3">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C103" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" hidden="1" spans="1:3">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C104" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" hidden="1" spans="1:3">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C105" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" hidden="1" spans="1:3">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C106" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" hidden="1" spans="1:3">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" hidden="1" spans="1:3">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" hidden="1" spans="1:3">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" hidden="1" spans="1:3">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" hidden="1" spans="1:3">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C111" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" hidden="1" spans="1:3">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C112" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" hidden="1" spans="1:3">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C113" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" hidden="1" spans="1:3">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" hidden="1" spans="1:3">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C115" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" hidden="1" spans="1:3">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" hidden="1" spans="1:3">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" hidden="1" spans="1:3">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" hidden="1" spans="1:3">
       <c r="A119" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" hidden="1" spans="1:3">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" hidden="1" spans="1:3">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C121" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" hidden="1" spans="1:3">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C122" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" hidden="1" spans="1:3">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C123" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" hidden="1" spans="1:3">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C124" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" hidden="1" spans="1:3">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C125" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" hidden="1" spans="1:3">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C126" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" hidden="1" spans="1:3">
       <c r="A127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C127" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" hidden="1" spans="1:3">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C128" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" hidden="1" spans="1:3">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C129" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" hidden="1" spans="1:3">
       <c r="A130" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C130" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" hidden="1" spans="1:3">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C131" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" hidden="1" spans="1:3">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C132" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" hidden="1" spans="1:3">
       <c r="A133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C133" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" hidden="1" spans="1:3">
       <c r="A134" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C134" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" hidden="1" spans="1:3">
       <c r="A135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C135" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" hidden="1" spans="1:3">
       <c r="A136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C136" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" hidden="1" spans="1:3">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C137" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" hidden="1" spans="1:3">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C138" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" hidden="1" spans="1:3">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C139" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" hidden="1" spans="1:3">
       <c r="A140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C140" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" hidden="1" spans="1:3">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C141" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" hidden="1" spans="1:3">
       <c r="A142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" hidden="1" spans="1:3">
       <c r="A143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C143" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" hidden="1" spans="1:3">
       <c r="A144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C144" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" hidden="1" spans="1:3">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C145">
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" hidden="1" spans="1:3">
       <c r="A146" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" hidden="1" spans="1:3">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" hidden="1" spans="1:3">
       <c r="A148" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B148" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" hidden="1" spans="1:3">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" hidden="1" spans="1:3">
       <c r="A150" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" hidden="1" spans="1:3">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" hidden="1" spans="1:3">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" hidden="1" spans="1:3">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" hidden="1" spans="1:3">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" hidden="1" spans="1:3">
       <c r="A155" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" hidden="1" spans="1:3">
       <c r="A156" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" hidden="1" spans="1:3">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B157" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" hidden="1" spans="1:3">
       <c r="A158" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B158" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" hidden="1" spans="1:3">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" hidden="1" spans="1:3">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B160" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" hidden="1" spans="1:3">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B161" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" hidden="1" spans="1:3">
       <c r="A162" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" hidden="1" spans="1:3">
       <c r="A163" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B163" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" hidden="1" spans="1:3">
       <c r="A164" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B164" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" hidden="1" spans="1:3">
       <c r="A165" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" hidden="1" spans="1:3">
       <c r="A166" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" hidden="1" spans="1:3">
       <c r="A167" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" hidden="1" spans="1:3">
       <c r="A168" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" hidden="1" spans="1:3">
       <c r="A169" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" hidden="1" spans="1:3">
       <c r="A170" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" hidden="1" spans="1:3">
       <c r="A171" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" hidden="1" spans="1:3">
       <c r="A172" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" hidden="1" spans="1:3">
       <c r="A173" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B173" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" hidden="1" spans="1:3">
       <c r="A174" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B174" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" hidden="1" spans="1:3">
       <c r="A175" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" hidden="1" spans="1:3">
       <c r="A176" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C176">
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" hidden="1" spans="1:3">
       <c r="A177" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C177">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" hidden="1" spans="1:3">
       <c r="A178" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C178">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" hidden="1" spans="1:3">
       <c r="A179" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C179">
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" hidden="1" spans="1:3">
       <c r="A180" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" hidden="1" spans="1:3">
       <c r="A181" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C181">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" hidden="1" spans="1:3">
       <c r="A182" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B182" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" hidden="1" spans="1:3">
+      <c r="A183" t="s">
         <v>159</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>158</v>
-      </c>
       <c r="B183" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" hidden="1" spans="1:3">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B184" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" hidden="1" spans="1:3">
       <c r="A185" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C185">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" hidden="1" spans="1:3">
       <c r="A186" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B186" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C186">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" hidden="1" spans="1:3">
       <c r="A187" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B187" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C187">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" hidden="1" spans="1:3">
       <c r="A188" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C188">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" hidden="1" spans="1:3">
       <c r="A189" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B189" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C189">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" hidden="1" spans="1:3">
       <c r="A190" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B190" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" hidden="1" spans="1:3">
       <c r="A191" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" hidden="1" spans="1:3">
       <c r="A192" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C192">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" hidden="1" spans="1:3">
       <c r="A193" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B193" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" hidden="1" spans="1:3">
       <c r="A194" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B194" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" hidden="1" spans="1:3">
       <c r="A195" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B195" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" hidden="1" spans="1:3">
       <c r="A196" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B196" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" hidden="1" spans="1:3">
       <c r="A197" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B197" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" hidden="1" spans="1:3">
       <c r="A198" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B198" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C198">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" hidden="1" spans="1:3">
       <c r="A199" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C199">
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" hidden="1" spans="1:3">
       <c r="A200" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C200">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" hidden="1" spans="1:3">
       <c r="A201" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C201">
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" hidden="1" spans="1:3">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C202">
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" hidden="1" spans="1:3">
       <c r="A203" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" hidden="1" spans="1:3">
       <c r="A204" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C204">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" hidden="1" spans="1:3">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" hidden="1" spans="1:3">
       <c r="A206" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" hidden="1" spans="1:3">
       <c r="A207" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" hidden="1" spans="1:3">
       <c r="A208" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B208" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" hidden="1" spans="1:3">
       <c r="A209" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C209">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" hidden="1" spans="1:3">
       <c r="A210" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B210" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C210">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" hidden="1" spans="1:3">
       <c r="A211" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B211" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" hidden="1" spans="1:3">
       <c r="A212" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B212" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" hidden="1" spans="1:3">
       <c r="A213" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B213" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" hidden="1" spans="1:3">
       <c r="A214" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B214" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" hidden="1" spans="1:3">
       <c r="A215" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B215" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C215">
         <v>72</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" hidden="1" spans="1:3">
       <c r="A216" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C216">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" hidden="1" spans="1:3">
       <c r="A217" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C217">
         <v>10</v>
@@ -4023,10 +4029,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C218">
         <v>32</v>
@@ -4034,10 +4040,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -4045,10 +4051,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C220">
         <v>5</v>
@@ -4056,10 +4062,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -4067,10 +4073,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B222" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C222">
         <v>4</v>
@@ -4078,10 +4084,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C223">
         <v>4</v>
@@ -4089,10 +4095,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B224" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C224">
         <v>6</v>
@@ -4100,10 +4106,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C225">
         <v>6</v>
@@ -4111,10 +4117,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B226" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C226">
         <v>3</v>
@@ -4122,10 +4128,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4133,10 +4139,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B228" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4144,10 +4150,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B229" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4155,10 +4161,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B230" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -4166,10 +4172,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -4177,10 +4183,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B232" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C232">
         <v>55</v>
@@ -4188,10 +4194,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -4199,16 +4205,24 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B234" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C234">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C234">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="R76120L09"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
